--- a/Additional Experiment Result.xlsx
+++ b/Additional Experiment Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udi.aharon\GitHub\ANN-FT-Conference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udi.aharon\GitHub\FT-ANN-Conference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FFE2D9-BD36-475C-BC92-302695E023DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD01682-3EEC-4786-9BA4-C217BA218374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSIC 2010" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
   <si>
     <t>Endpoint</t>
-  </si>
-  <si>
-    <t>ANN-FT</t>
   </si>
   <si>
     <t>FB</t>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>CSIC 2010</t>
+  </si>
+  <si>
+    <t>FT-ANN</t>
   </si>
 </sst>
 </file>
@@ -669,68 +669,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>4.0000000000000002E-4</v>
@@ -778,9 +778,9 @@
         <v>1.15E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>2.0000000000000001E-4</v>
@@ -828,9 +828,9 @@
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>2.0000000000000001E-4</v>
@@ -878,9 +878,9 @@
         <v>4.6600000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>2.0000000000000001E-4</v>
@@ -928,9 +928,9 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>2.0000000000000001E-4</v>
@@ -978,9 +978,9 @@
         <v>3.4349999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>2.9999999999999997E-4</v>
@@ -1028,9 +1028,9 @@
         <v>6.2649999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1078,9 +1078,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>1.5800000000000002E-2</v>
@@ -1128,9 +1128,9 @@
         <v>0.50919999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1178,9 +1178,9 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>2.9999999999999997E-4</v>
@@ -1228,9 +1228,9 @@
         <v>5.1950000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1278,9 +1278,9 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1328,9 +1328,9 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>8.0000000000000004E-4</v>
@@ -1378,9 +1378,9 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
         <v>2.2000000000000001E-3</v>
@@ -1428,9 +1428,9 @@
         <v>5.9150000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>2.9999999999999997E-4</v>
@@ -1478,9 +1478,9 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1528,9 +1528,9 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
         <v>4.0000000000000002E-4</v>
@@ -1578,9 +1578,9 @@
         <v>4.3249999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1628,9 +1628,9 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
         <v>8.0000000000000004E-4</v>
@@ -1678,9 +1678,9 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1728,9 +1728,9 @@
         <v>6.9250000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2">
         <v>2.0899999999999998E-2</v>
@@ -1778,9 +1778,9 @@
         <v>0.51980000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
         <v>2.9999999999999997E-4</v>
@@ -1828,9 +1828,9 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
         <v>1.52E-2</v>
@@ -1878,9 +1878,9 @@
         <v>0.45040000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
         <v>8.0000000000000004E-4</v>
@@ -1928,9 +1928,9 @@
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
         <v>2.0999999999999999E-3</v>
@@ -1978,9 +1978,9 @@
         <v>7.5249999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
         <v>4.0000000000000002E-4</v>
@@ -2028,9 +2028,9 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
         <v>4.0000000000000002E-4</v>
@@ -2078,9 +2078,9 @@
         <v>4.7649999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
         <v>8.0000000000000004E-4</v>
@@ -2128,9 +2128,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2">
         <v>2.4799999999999999E-2</v>
@@ -2178,9 +2178,9 @@
         <v>0.52059999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
         <v>2.9999999999999997E-4</v>
@@ -2228,9 +2228,9 @@
         <v>3.2050000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32:P32" si="0">AVERAGE(B2:B31)</f>
@@ -2293,9 +2293,9 @@
         <v>0.10149999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="6">
         <v>0.12640000000000001</v>
@@ -2343,65 +2343,65 @@
         <v>1.5753999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B38" s="1">
         <v>0.99346400000000001</v>
@@ -2449,9 +2449,9 @@
         <v>7.4074000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -2499,9 +2499,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -2549,9 +2549,9 @@
         <v>0.52631600000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -2599,9 +2599,9 @@
         <v>0.44444400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -2649,9 +2649,9 @@
         <v>0.52631600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -2699,9 +2699,9 @@
         <v>0.26666699999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -2749,9 +2749,9 @@
         <v>0.52631600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1">
         <v>0.82452000000000003</v>
@@ -2799,9 +2799,9 @@
         <v>0.202375</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -2849,9 +2849,9 @@
         <v>0.52631600000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -2899,9 +2899,9 @@
         <v>0.228571</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2949,9 +2949,9 @@
         <v>0.47619</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -2999,9 +2999,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1">
         <v>0.997722</v>
@@ -3049,9 +3049,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="1">
         <v>0.97445599999999999</v>
@@ -3099,9 +3099,9 @@
         <v>0.32515300000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -3149,9 +3149,9 @@
         <v>0.385542</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -3199,9 +3199,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -3249,9 +3249,9 @@
         <v>0.30588199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -3299,9 +3299,9 @@
         <v>0.47619</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1">
         <v>0.99770099999999995</v>
@@ -3349,9 +3349,9 @@
         <v>0.17427400000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -3399,9 +3399,9 @@
         <v>0.57142899999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="1">
         <v>0.82883499999999999</v>
@@ -3449,9 +3449,9 @@
         <v>0.21193400000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -3499,9 +3499,9 @@
         <v>0.28235300000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1">
         <v>0.824573</v>
@@ -3549,9 +3549,9 @@
         <v>0.14793899999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" s="1">
         <v>0.99756699999999998</v>
@@ -3599,9 +3599,9 @@
         <v>0.28925600000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" s="1">
         <v>0.97480599999999995</v>
@@ -3649,9 +3649,9 @@
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -3699,9 +3699,9 @@
         <v>0.47058800000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3749,9 +3749,9 @@
         <v>0.338028</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1">
         <v>0.99754299999999996</v>
@@ -3799,9 +3799,9 @@
         <v>0.18502199999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1">
         <v>0.82828299999999999</v>
@@ -3849,9 +3849,9 @@
         <v>0.162132</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -3899,9 +3899,9 @@
         <v>0.338028</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="4">
         <f t="shared" ref="B68:P68" si="1">AVERAGE(B38:B67)</f>
@@ -3964,59 +3964,59 @@
         <v>0.3499611666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -4064,9 +4064,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -4114,9 +4114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -4164,9 +4164,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -4214,9 +4214,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
@@ -4264,9 +4264,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -4314,9 +4314,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -4364,9 +4364,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" s="1">
         <v>0.76273299999999999</v>
@@ -4414,9 +4414,9 @@
         <v>0.34087000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -4464,9 +4464,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
@@ -4514,9 +4514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
@@ -4564,9 +4564,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -4614,9 +4614,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85" s="1">
         <v>0.995475</v>
@@ -4664,9 +4664,9 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" s="1">
         <v>0.97169799999999995</v>
@@ -4714,9 +4714,9 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1">
         <v>0.98507500000000003</v>
@@ -4764,9 +4764,9 @@
         <v>0.94117600000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -4814,9 +4814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -4864,9 +4864,9 @@
         <v>0.92857100000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -4914,9 +4914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4964,9 +4964,9 @@
         <v>0.91304300000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -5014,9 +5014,9 @@
         <v>0.85714299999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="1">
         <v>0.76631400000000005</v>
@@ -5064,9 +5064,9 @@
         <v>0.35517199999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -5114,9 +5114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B95" s="1">
         <v>0.76422299999999999</v>
@@ -5164,9 +5164,9 @@
         <v>0.30823499999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" s="1">
         <v>0.99516899999999997</v>
@@ -5214,9 +5214,9 @@
         <v>0.97222200000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B97" s="1">
         <v>0.96730799999999995</v>
@@ -5264,9 +5264,9 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" s="1">
         <v>0.980769</v>
@@ -5314,9 +5314,9 @@
         <v>0.94117600000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -5364,9 +5364,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -5414,9 +5414,9 @@
         <v>0.91304300000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" s="1">
         <v>0.75472799999999995</v>
@@ -5464,9 +5464,9 @@
         <v>0.32300899999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
@@ -5514,9 +5514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B103" s="4">
         <f t="shared" ref="B103:P103" si="2">AVERAGE(B73:B102)</f>
@@ -5579,59 +5579,59 @@
         <v>0.87368033333333317</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="N107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="O107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O107" s="1" t="s">
+      <c r="P107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B108" s="1">
         <v>0.98701300000000003</v>
@@ -5679,9 +5679,9 @@
         <v>3.8961000000000003E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -5729,9 +5729,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
@@ -5779,9 +5779,9 @@
         <v>0.35714299999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -5829,9 +5829,9 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1">
         <v>1</v>
@@ -5879,9 +5879,9 @@
         <v>0.35714299999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
@@ -5929,9 +5929,9 @@
         <v>0.15384600000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
@@ -5979,9 +5979,9 @@
         <v>0.35714299999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" s="1">
         <v>0.90161500000000006</v>
@@ -6029,9 +6029,9 @@
         <v>0.14390600000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
@@ -6079,9 +6079,9 @@
         <v>0.35714299999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -6129,9 +6129,9 @@
         <v>0.12903200000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -6179,9 +6179,9 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
@@ -6229,9 +6229,9 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
@@ -6279,9 +6279,9 @@
         <v>0.17727299999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" s="1">
         <v>0.97723000000000004</v>
@@ -6329,9 +6329,9 @@
         <v>0.20113900000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
@@ -6379,9 +6379,9 @@
         <v>0.242424</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -6429,9 +6429,9 @@
         <v>0.33333299999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B124" s="1">
         <v>1</v>
@@ -6479,9 +6479,9 @@
         <v>0.18309900000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -6529,9 +6529,9 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B126" s="1">
         <v>0.99541299999999999</v>
@@ -6579,9 +6579,9 @@
         <v>9.6329999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -6629,9 +6629,9 @@
         <v>0.42857099999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B128" s="1">
         <v>0.90395899999999996</v>
@@ -6679,9 +6679,9 @@
         <v>0.15102599999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B129" s="1">
         <v>1</v>
@@ -6729,9 +6729,9 @@
         <v>0.164384</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B130" s="1">
         <v>0.89821700000000004</v>
@@ -6779,9 +6779,9 @@
         <v>9.7324999999999995E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -6829,9 +6829,9 @@
         <v>0.169903</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B132" s="1">
         <v>0.98242200000000002</v>
@@ -6879,9 +6879,9 @@
         <v>0.21093799999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -6929,9 +6929,9 @@
         <v>0.31372499999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -6979,9 +6979,9 @@
         <v>0.20338999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B135" s="1">
         <v>0.99509800000000004</v>
@@ -7029,9 +7029,9 @@
         <v>0.102941</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B136" s="1">
         <v>0.91697600000000001</v>
@@ -7079,9 +7079,9 @@
         <v>0.108228</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B137" s="1">
         <v>1</v>
@@ -7129,9 +7129,9 @@
         <v>0.20338999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B138" s="4">
         <f t="shared" ref="B138:P138" si="3">AVERAGE(B108:B137)</f>
@@ -7208,46 +7208,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>233.87495000000001</v>
@@ -7265,9 +7265,9 @@
         <v>0.223264833333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>1.5753999999999999</v>
@@ -7285,9 +7285,9 @@
         <v>0.225859433333333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>13.295349999999999</v>
@@ -7305,9 +7305,9 @@
         <v>0.85893656666666696</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>1.5902000000000001</v>
@@ -7325,9 +7325,9 @@
         <v>0.94392073333333304</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>12.285600000000001</v>
@@ -7345,9 +7345,9 @@
         <v>0.94436310000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>1.50895</v>
@@ -7365,9 +7365,9 @@
         <v>0.94593593333333303</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>5.1153500000000003</v>
@@ -7385,9 +7385,9 @@
         <v>0.94598526666666705</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>27.378250000000001</v>
@@ -7405,9 +7405,9 @@
         <v>0.95019149999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>0.12720000000000001</v>
@@ -7425,9 +7425,9 @@
         <v>0.95041273333333298</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>8.4650000000000003E-2</v>
@@ -7445,9 +7445,9 @@
         <v>0.95016733333333303</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>0.95269999999999999</v>
@@ -7465,9 +7465,9 @@
         <v>0.953806933333333</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>3.1627999999999998</v>
@@ -7485,9 +7485,9 @@
         <v>0.95914489999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
         <v>119.15225</v>
@@ -7505,9 +7505,9 @@
         <v>0.97742090000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
         <v>0.42254999999999998</v>
@@ -7525,9 +7525,9 @@
         <v>0.99306479999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B18" s="9">
         <v>0.12640000000000001</v>

--- a/Additional Experiment Result.xlsx
+++ b/Additional Experiment Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udi.aharon\GitHub\FT-ANN-Conference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD01682-3EEC-4786-9BA4-C217BA218374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FDD132-4A7F-477C-B44C-7583FD6DFF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7208,8 +7208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
